--- a/μετρηση χρονων.xlsx
+++ b/μετρηση χρονων.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleni\Downloads\GIT\hci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikim\Desktop\hci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0340FF3-AE07-48BD-9A13-D63CB284A5BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA93D5-85CC-41B2-BA13-794F3BB38177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8CE9F75A-50D3-4337-BF06-E823E0B3D2E7}"/>
+    <workbookView xWindow="1092" yWindow="36" windowWidth="10824" windowHeight="12360" xr2:uid="{8CE9F75A-50D3-4337-BF06-E823E0B3D2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Φύλλο1!$B$2:$B$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -272,6 +268,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,6 +741,12 @@
                 <c:pt idx="1">
                   <c:v>10.81</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1199,6 +1207,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,6 +1675,12 @@
                 <c:pt idx="1">
                   <c:v>7.89</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2118,6 +2138,12 @@
                 <c:pt idx="1">
                   <c:v>4.3600000000000003</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.57</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2574,6 +2600,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6652,7 +6684,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6697,16 +6729,28 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>7.33</v>
+      </c>
       <c r="D4">
         <v>3</v>
+      </c>
+      <c r="E4">
+        <v>6.27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>4.13</v>
+      </c>
       <c r="D5">
         <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4.45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6765,16 +6809,28 @@
       <c r="A12">
         <v>3</v>
       </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
       <c r="D12">
         <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4.38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
+      <c r="B13">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="D13">
         <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4.57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6833,16 +6889,28 @@
       <c r="A20">
         <v>3</v>
       </c>
+      <c r="B20">
+        <v>37.75</v>
+      </c>
       <c r="D20">
         <v>3</v>
+      </c>
+      <c r="E20">
+        <v>6.27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
+      <c r="B21">
+        <v>14.65</v>
+      </c>
       <c r="D21">
         <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4.32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/μετρηση χρονων.xlsx
+++ b/μετρηση χρονων.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikim\Desktop\hci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliadan/Downloads/GitLab/hci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA93D5-85CC-41B2-BA13-794F3BB38177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44A86D5-545E-0A43-865B-EF82A2B29721}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="36" windowWidth="10824" windowHeight="12360" xr2:uid="{8CE9F75A-50D3-4337-BF06-E823E0B3D2E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8CE9F75A-50D3-4337-BF06-E823E0B3D2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,7 +108,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -175,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -226,7 +226,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
+                <a:endParaRPr lang="en-GR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -274,6 +274,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,7 +370,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -402,7 +408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212197520"/>
@@ -493,7 +499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -525,7 +531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212196688"/>
@@ -566,7 +572,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -580,7 +586,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -647,7 +653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -698,7 +704,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
+                <a:endParaRPr lang="en-GR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -746,6 +752,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,7 +848,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -874,7 +886,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212226224"/>
@@ -965,7 +977,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -997,7 +1009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212225392"/>
@@ -1038,7 +1050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1052,7 +1064,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1114,7 +1126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1165,7 +1177,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
+                <a:endParaRPr lang="en-GR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1213,6 +1225,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.489999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1321,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1341,7 +1359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11795296"/>
@@ -1428,7 +1446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1460,7 +1478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11794464"/>
@@ -1501,7 +1519,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1515,7 +1533,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1581,7 +1599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1632,7 +1650,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
+                <a:endParaRPr lang="en-GR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1680,6 +1698,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,7 +1794,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1808,7 +1832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212207504"/>
@@ -1895,7 +1919,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1927,7 +1951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212207088"/>
@@ -1968,7 +1992,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1982,7 +2006,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2044,7 +2068,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2095,7 +2119,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
+                <a:endParaRPr lang="en-GR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2143,6 +2167,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,7 +2263,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2271,7 +2301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11814432"/>
@@ -2358,7 +2388,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2390,7 +2420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11811520"/>
@@ -2431,7 +2461,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2445,7 +2475,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2507,7 +2537,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2558,7 +2588,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="el-GR"/>
+                <a:endParaRPr lang="en-GR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2606,6 +2636,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2732,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2734,7 +2770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212217072"/>
@@ -2821,7 +2857,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="el-GR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2853,7 +2889,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212199600"/>
@@ -2894,7 +2930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6385,7 +6421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6684,12 +6720,12 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6697,7 +6733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6711,7 +6747,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6725,7 +6761,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6739,7 +6775,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6753,23 +6789,35 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>3.5</v>
+      </c>
       <c r="D6">
         <v>5</v>
       </c>
+      <c r="E6">
+        <v>9.6199999999999992</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="D7">
         <v>6</v>
       </c>
+      <c r="E7">
+        <v>11.01</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6777,7 +6825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6791,7 +6839,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6805,7 +6853,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -6819,7 +6867,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -6833,23 +6881,35 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
+      <c r="B14">
+        <v>1.78</v>
+      </c>
       <c r="D14">
         <v>5</v>
       </c>
+      <c r="E14">
+        <v>4.01</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
+      <c r="B15">
+        <v>3.73</v>
+      </c>
       <c r="D15">
         <v>6</v>
       </c>
+      <c r="E15">
+        <v>6.7</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -6857,7 +6917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6871,7 +6931,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -6885,7 +6945,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6899,7 +6959,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6913,20 +6973,32 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
+      <c r="B22">
+        <v>11.78</v>
+      </c>
       <c r="D22">
         <v>5</v>
       </c>
+      <c r="E22">
+        <v>6.13</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
+      <c r="B23">
+        <v>18.489999999999998</v>
+      </c>
       <c r="D23">
         <v>6</v>
+      </c>
+      <c r="E23">
+        <v>6.85</v>
       </c>
     </row>
   </sheetData>
